--- a/testdata/out_template.xlsx
+++ b/testdata/out_template.xlsx
@@ -70,13 +70,13 @@
     <ma:phoneticPr fontId="1" type="noConversion"/>
   </ma:si>
   <ma:si>
-    <ma:t>2020-04-07</ma:t>
-  </ma:si>
-  <ma:si>
-    <ma:t>2020-04-06</ma:t>
-  </ma:si>
-  <ma:si>
-    <ma:t>2020-04-05</ma:t>
+    <ma:t>2020-04-10</ma:t>
+  </ma:si>
+  <ma:si>
+    <ma:t>2020-04-09</ma:t>
+  </ma:si>
+  <ma:si>
+    <ma:t>2020-04-08</ma:t>
   </ma:si>
 </ma:sst>
 </file>
@@ -139,7 +139,7 @@
       <ma:sz val="14"/>
     </ma:font>
   </ma:fonts>
-  <ma:fills count="5">
+  <ma:fills count="8">
     <ma:fill>
       <ma:patternFill patternType="none"/>
     </ma:fill>
@@ -161,6 +161,24 @@
     <ma:fill>
       <ma:patternFill patternType="solid">
         <ma:fgColor rgb="FFFF0000"/>
+        <ma:bgColor indexed="64"/>
+      </ma:patternFill>
+    </ma:fill>
+    <ma:fill>
+      <ma:patternFill patternType="solid">
+        <ma:fgColor theme="4" tint="0.7999816888943144"/>
+        <ma:bgColor indexed="64"/>
+      </ma:patternFill>
+    </ma:fill>
+    <ma:fill>
+      <ma:patternFill patternType="solid">
+        <ma:fgColor theme="9" tint="0.7999816888943144"/>
+        <ma:bgColor indexed="64"/>
+      </ma:patternFill>
+    </ma:fill>
+    <ma:fill>
+      <ma:patternFill patternType="solid">
+        <ma:fgColor theme="8" tint="0.7999816888943144"/>
         <ma:bgColor indexed="64"/>
       </ma:patternFill>
     </ma:fill>
@@ -194,7 +212,7 @@
     <ma:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <ma:xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </ma:cellStyleXfs>
-  <ma:cellXfs count="9">
+  <ma:cellXfs count="19">
     <ma:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <ma:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <ma:xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -215,6 +233,30 @@
     </ma:xf>
     <ma:xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <ma:alignment horizontal="center" vertical="center"/>
+    </ma:xf>
+    <ma:xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <ma:xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <ma:alignment horizontal="center"/>
+    </ma:xf>
+    <ma:xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <ma:xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <ma:alignment horizontal="center"/>
+    </ma:xf>
+    <ma:xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <ma:xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <ma:alignment horizontal="center"/>
+    </ma:xf>
+    <ma:xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <ma:alignment horizontal="left"/>
+    </ma:xf>
+    <ma:xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <ma:alignment horizontal="left"/>
+    </ma:xf>
+    <ma:xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <ma:alignment horizontal="left"/>
+    </ma:xf>
+    <ma:xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <ma:alignment horizontal="left"/>
     </ma:xf>
   </ma:cellXfs>
   <ma:cellStyles count="3">
@@ -562,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <ma:worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ma="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xml="http://www.w3.org/XML/1998/namespace">
-  <ma:dimension ref="A1:C3"/>
+  <ma:dimension ref="A1:C8"/>
   <ma:sheetViews>
     <ma:sheetView tabSelected="1" workbookViewId="0">
-      <ma:selection activeCell="B4" sqref="B4"/>
+      <ma:selection activeCell="E10" sqref="E10"/>
     </ma:sheetView>
   </ma:sheetViews>
   <ma:sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
@@ -587,7 +629,7 @@
       </ma:c>
     </ma:row>
     <ma:row r="2" spans="1:3">
-      <ma:c r="A2" s="2" t="n">
+      <ma:c r="A2" s="15" t="n">
         <ma:v>100</ma:v>
       </ma:c>
       <ma:c r="B2" s="6" t="n">
@@ -597,20 +639,76 @@
         <ma:v>50</ma:v>
       </ma:c>
     </ma:row>
-    <ma:row r="3">
-      <ma:c r="A3" s="2" t="n">
+    <ma:row r="3" spans="1:3">
+      <ma:c r="A3" s="16" t="n">
         <ma:v>200</ma:v>
       </ma:c>
-      <ma:c r="B3" s="6" t="n">
+      <ma:c r="B3" s="10" t="n">
         <ma:v>60</ma:v>
       </ma:c>
-      <ma:c r="C3" s="2" t="n">
+      <ma:c r="C3" s="9" t="n">
         <ma:v>140</ma:v>
+      </ma:c>
+    </ma:row>
+    <ma:row r="4" spans="1:3">
+      <ma:c r="A4" s="17" t="n">
+        <ma:v>300</ma:v>
+      </ma:c>
+      <ma:c r="B4" s="14" t="n">
+        <ma:v>70</ma:v>
+      </ma:c>
+      <ma:c r="C4" s="13" t="n">
+        <ma:v>150</ma:v>
+      </ma:c>
+    </ma:row>
+    <ma:row r="5" spans="1:3">
+      <ma:c r="A5" s="18" t="n">
+        <ma:v>400</ma:v>
+      </ma:c>
+      <ma:c r="B5" s="12" t="n">
+        <ma:v>80</ma:v>
+      </ma:c>
+      <ma:c r="C5" s="11" t="n">
+        <ma:v>160</ma:v>
+      </ma:c>
+    </ma:row>
+    <ma:row r="6">
+      <ma:c r="A6" s="15" t="n">
+        <ma:v>500</ma:v>
+      </ma:c>
+      <ma:c r="B6" s="6" t="n">
+        <ma:v>90</ma:v>
+      </ma:c>
+      <ma:c r="C6" s="2" t="n">
+        <ma:v>180</ma:v>
+      </ma:c>
+    </ma:row>
+    <ma:row r="7">
+      <ma:c r="A7" s="16" t="n">
+        <ma:v>600</ma:v>
+      </ma:c>
+      <ma:c r="B7" s="10" t="n">
+        <ma:v>96</ma:v>
+      </ma:c>
+      <ma:c r="C7" s="9" t="n">
+        <ma:v>186</ma:v>
+      </ma:c>
+    </ma:row>
+    <ma:row r="8">
+      <ma:c r="A8" s="17" t="n">
+        <ma:v>700</ma:v>
+      </ma:c>
+      <ma:c r="B8" s="14" t="n">
+        <ma:v>97</ma:v>
+      </ma:c>
+      <ma:c r="C8" s="13" t="n">
+        <ma:v>187</ma:v>
       </ma:c>
     </ma:row>
   </ma:sheetData>
   <ma:phoneticPr fontId="1" type="noConversion"/>
   <ma:pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <ma:pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </ma:worksheet>
 </file>
 
@@ -707,7 +805,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <ma:worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ma="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xml="http://www.w3.org/XML/1998/namespace">
-  <ma:dimension ref="A1:C1"/>
+  <ma:dimension ref="A1:C2"/>
   <ma:sheetViews>
     <ma:sheetView workbookViewId="0"/>
   </ma:sheetViews>
@@ -729,6 +827,17 @@
         <ma:v>6</ma:v>
       </ma:c>
     </ma:row>
+    <ma:row r="2" spans="1:3">
+      <ma:c r="A2" s="2" t="s">
+        <ma:v>11</ma:v>
+      </ma:c>
+      <ma:c r="B2" s="2" t="n">
+        <ma:v>10</ma:v>
+      </ma:c>
+      <ma:c r="C2" s="2" t="n">
+        <ma:v>20</ma:v>
+      </ma:c>
+    </ma:row>
   </ma:sheetData>
   <ma:phoneticPr fontId="1" type="noConversion"/>
   <ma:pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/testdata/out_template.xlsx
+++ b/testdata/out_template.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <ma:workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ma="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xml="http://www.w3.org/XML/1998/namespace">
-  <ma:fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10307"/>
+  <ma:fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
   <ma:workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <ma:bookViews>
     <ma:workbookView xWindow="5000" yWindow="3960" windowWidth="25520" windowHeight="16000" tabRatio="500"/>
@@ -70,20 +70,20 @@
     <ma:phoneticPr fontId="1" type="noConversion"/>
   </ma:si>
   <ma:si>
-    <ma:t>2020-04-10</ma:t>
-  </ma:si>
-  <ma:si>
-    <ma:t>2020-04-09</ma:t>
-  </ma:si>
-  <ma:si>
-    <ma:t>2020-04-08</ma:t>
+    <ma:t>2020-08-24</ma:t>
+  </ma:si>
+  <ma:si>
+    <ma:t>2020-08-23</ma:t>
+  </ma:si>
+  <ma:si>
+    <ma:t>2020-08-22</ma:t>
   </ma:si>
 </ma:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <ma:styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ma="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xml="http://www.w3.org/XML/1998/namespace">
-  <ma:fonts count="7">
+  <ma:fonts count="6">
     <ma:font>
       <ma:name val="宋体"/>
       <ma:charset val="134"/>
@@ -132,14 +132,8 @@
       <ma:sz val="14"/>
       <ma:scheme val="minor"/>
     </ma:font>
-    <ma:font>
-      <ma:name val="Hiragino Sans GB W3"/>
-      <ma:charset val="134"/>
-      <ma:family val="3"/>
-      <ma:sz val="14"/>
-    </ma:font>
   </ma:fonts>
-  <ma:fills count="8">
+  <ma:fills count="6">
     <ma:fill>
       <ma:patternFill patternType="none"/>
     </ma:fill>
@@ -149,18 +143,6 @@
     <ma:fill>
       <ma:patternFill patternType="solid">
         <ma:fgColor theme="9" tint="0.5999938962981048"/>
-        <ma:bgColor indexed="64"/>
-      </ma:patternFill>
-    </ma:fill>
-    <ma:fill>
-      <ma:patternFill patternType="solid">
-        <ma:fgColor rgb="FFC8A6FF"/>
-        <ma:bgColor indexed="64"/>
-      </ma:patternFill>
-    </ma:fill>
-    <ma:fill>
-      <ma:patternFill patternType="solid">
-        <ma:fgColor rgb="FFFF0000"/>
         <ma:bgColor indexed="64"/>
       </ma:patternFill>
     </ma:fill>
@@ -212,7 +194,7 @@
     <ma:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <ma:xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </ma:cellStyleXfs>
-  <ma:cellXfs count="19">
+  <ma:cellXfs count="17">
     <ma:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <ma:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <ma:xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -228,34 +210,28 @@
     <ma:xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <ma:alignment horizontal="center"/>
     </ma:xf>
+    <ma:xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <ma:xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <ma:alignment horizontal="center" vertical="center"/>
-    </ma:xf>
-    <ma:xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <ma:alignment horizontal="center" vertical="center"/>
+      <ma:alignment horizontal="center"/>
+    </ma:xf>
+    <ma:xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <ma:xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <ma:alignment horizontal="center"/>
     </ma:xf>
     <ma:xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <ma:xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <ma:alignment horizontal="center"/>
     </ma:xf>
-    <ma:xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <ma:xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <ma:alignment horizontal="center"/>
-    </ma:xf>
-    <ma:xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <ma:xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <ma:alignment horizontal="center"/>
-    </ma:xf>
     <ma:xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <ma:alignment horizontal="left"/>
     </ma:xf>
+    <ma:xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <ma:alignment horizontal="left"/>
+    </ma:xf>
     <ma:xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <ma:alignment horizontal="left"/>
     </ma:xf>
-    <ma:xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <ma:alignment horizontal="left"/>
-    </ma:xf>
-    <ma:xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <ma:xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <ma:alignment horizontal="left"/>
     </ma:xf>
   </ma:cellXfs>
@@ -607,7 +583,7 @@
   <ma:dimension ref="A1:C8"/>
   <ma:sheetViews>
     <ma:sheetView tabSelected="1" workbookViewId="0">
-      <ma:selection activeCell="E10" sqref="E10"/>
+      <ma:selection activeCell="E6" sqref="E6"/>
     </ma:sheetView>
   </ma:sheetViews>
   <ma:sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
@@ -618,18 +594,18 @@
   </ma:cols>
   <ma:sheetData>
     <ma:row r="1" spans="1:3">
-      <ma:c r="A1" s="8" t="s">
+      <ma:c r="A1" s="3" t="s">
         <ma:v>8</ma:v>
       </ma:c>
       <ma:c r="B1" s="3" t="s">
         <ma:v>9</ma:v>
       </ma:c>
-      <ma:c r="C1" s="7" t="s">
+      <ma:c r="C1" s="3" t="s">
         <ma:v>10</ma:v>
       </ma:c>
     </ma:row>
     <ma:row r="2" spans="1:3">
-      <ma:c r="A2" s="15" t="n">
+      <ma:c r="A2" s="13" t="n">
         <ma:v>100</ma:v>
       </ma:c>
       <ma:c r="B2" s="6" t="n">
@@ -640,40 +616,40 @@
       </ma:c>
     </ma:row>
     <ma:row r="3" spans="1:3">
-      <ma:c r="A3" s="16" t="n">
+      <ma:c r="A3" s="14" t="n">
         <ma:v>200</ma:v>
       </ma:c>
-      <ma:c r="B3" s="10" t="n">
+      <ma:c r="B3" s="8" t="n">
         <ma:v>60</ma:v>
       </ma:c>
-      <ma:c r="C3" s="9" t="n">
+      <ma:c r="C3" s="7" t="n">
         <ma:v>140</ma:v>
       </ma:c>
     </ma:row>
     <ma:row r="4" spans="1:3">
-      <ma:c r="A4" s="17" t="n">
+      <ma:c r="A4" s="15" t="n">
         <ma:v>300</ma:v>
       </ma:c>
-      <ma:c r="B4" s="14" t="n">
+      <ma:c r="B4" s="12" t="n">
         <ma:v>70</ma:v>
       </ma:c>
-      <ma:c r="C4" s="13" t="n">
+      <ma:c r="C4" s="11" t="n">
         <ma:v>150</ma:v>
       </ma:c>
     </ma:row>
     <ma:row r="5" spans="1:3">
-      <ma:c r="A5" s="18" t="n">
+      <ma:c r="A5" s="16" t="n">
         <ma:v>400</ma:v>
       </ma:c>
-      <ma:c r="B5" s="12" t="n">
+      <ma:c r="B5" s="10" t="n">
         <ma:v>80</ma:v>
       </ma:c>
-      <ma:c r="C5" s="11" t="n">
+      <ma:c r="C5" s="9" t="n">
         <ma:v>160</ma:v>
       </ma:c>
     </ma:row>
     <ma:row r="6">
-      <ma:c r="A6" s="15" t="n">
+      <ma:c r="A6" s="13" t="n">
         <ma:v>500</ma:v>
       </ma:c>
       <ma:c r="B6" s="6" t="n">
@@ -684,24 +660,24 @@
       </ma:c>
     </ma:row>
     <ma:row r="7">
-      <ma:c r="A7" s="16" t="n">
+      <ma:c r="A7" s="14" t="n">
         <ma:v>600</ma:v>
       </ma:c>
-      <ma:c r="B7" s="10" t="n">
+      <ma:c r="B7" s="8" t="n">
         <ma:v>96</ma:v>
       </ma:c>
-      <ma:c r="C7" s="9" t="n">
+      <ma:c r="C7" s="7" t="n">
         <ma:v>186</ma:v>
       </ma:c>
     </ma:row>
     <ma:row r="8">
-      <ma:c r="A8" s="17" t="n">
+      <ma:c r="A8" s="15" t="n">
         <ma:v>700</ma:v>
       </ma:c>
-      <ma:c r="B8" s="14" t="n">
+      <ma:c r="B8" s="12" t="n">
         <ma:v>97</ma:v>
       </ma:c>
-      <ma:c r="C8" s="13" t="n">
+      <ma:c r="C8" s="11" t="n">
         <ma:v>187</ma:v>
       </ma:c>
     </ma:row>

--- a/testdata/out_template.xlsx
+++ b/testdata/out_template.xlsx
@@ -70,13 +70,13 @@
     <ma:phoneticPr fontId="1" type="noConversion"/>
   </ma:si>
   <ma:si>
+    <ma:t>2020-08-25</ma:t>
+  </ma:si>
+  <ma:si>
     <ma:t>2020-08-24</ma:t>
   </ma:si>
   <ma:si>
     <ma:t>2020-08-23</ma:t>
-  </ma:si>
-  <ma:si>
-    <ma:t>2020-08-22</ma:t>
   </ma:si>
 </ma:sst>
 </file>
